--- a/data/financial_statements/sofp/ISRG.xlsx
+++ b/data/financial_statements/sofp/ISRG.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,2596 +596,2638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>4313900000</v>
+        <v>6741500000</v>
       </c>
       <c r="C2">
-        <v>4437400000</v>
+        <v>4319000000</v>
       </c>
       <c r="D2">
-        <v>3985600000</v>
+        <v>4437000000</v>
       </c>
       <c r="E2">
+        <v>3986000000</v>
+      </c>
+      <c r="F2">
         <v>4204000000</v>
       </c>
-      <c r="F2">
-        <v>4088200000</v>
-      </c>
       <c r="G2">
+        <v>4088000000</v>
+      </c>
+      <c r="H2">
         <v>4439200000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4557500000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5111400000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4718200000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4488300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3253400000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3221700000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2897600000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2718400000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2808700000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3063100000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3135900000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2932500000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2517300000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1960600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2146800000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1823400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1464800000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2554600000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2215300000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2183800000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1808400000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1559800000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1739700000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1561500000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1362200000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1232500000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1014300000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>978600000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1559300000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1403500000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1212900000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1290200000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1358200000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>849600000</v>
+        <v>942100000</v>
       </c>
       <c r="C3">
-        <v>838500000</v>
+        <v>971000000</v>
       </c>
       <c r="D3">
-        <v>906100000</v>
+        <v>955000000</v>
       </c>
       <c r="E3">
-        <v>782700000</v>
+        <v>1016000000</v>
       </c>
       <c r="F3">
-        <v>695000000</v>
+        <v>893000000</v>
       </c>
       <c r="G3">
+        <v>794000000</v>
+      </c>
+      <c r="H3">
         <v>699900000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>654300000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>645500000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>588600000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>508800000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>527600000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>645200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>639000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>633400000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>547600000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>682300000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>580400000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>532500000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>474900000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>507900000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>468000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>481100000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>412900000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>430200000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>432000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>403800000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>325900000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>394300000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>334700000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>321500000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>292400000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>315100000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>259100000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>271100000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>239100000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>301400000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>280600000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>358600000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>345100000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>837100000</v>
+        <v>893200000</v>
       </c>
       <c r="C4">
+        <v>837000000</v>
+      </c>
+      <c r="D4">
         <v>724000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>653000000</v>
       </c>
-      <c r="E4">
-        <v>587100000</v>
-      </c>
       <c r="F4">
-        <v>584900000</v>
+        <v>587000000</v>
       </c>
       <c r="G4">
+        <v>585000000</v>
+      </c>
+      <c r="H4">
         <v>569700000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>576800000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>601500000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>662900000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>645500000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>620300000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>595500000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>579600000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>512800000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>468300000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>409000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>370100000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>331500000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>283600000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>241200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>225200000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>214200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>213500000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>182300000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>183500000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>169200000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>163000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>167900000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>194000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>201300000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>202400000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>181700000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>198900000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>202400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>185500000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>179600000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>200100000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>169300000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>135500000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>166000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>176000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>148000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>161000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>261000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>213000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>199000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>268000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>262000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>185000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>290000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>200000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>6293100000</v>
+        <v>8576800000</v>
       </c>
       <c r="C6">
-        <v>6292500000</v>
+        <v>6293000000</v>
       </c>
       <c r="D6">
-        <v>5803200000</v>
+        <v>6293000000</v>
       </c>
       <c r="E6">
-        <v>5844900000</v>
+        <v>5803000000</v>
       </c>
       <c r="F6">
+        <v>5845000000</v>
+      </c>
+      <c r="G6">
         <v>5728000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6016600000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>6066400000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6625900000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6300300000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5899000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4691500000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4662600000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4317000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4071600000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>4025000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4333200000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4252600000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3986100000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3381700000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2808900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2928900000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2642200000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2167700000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3250400000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2911400000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2827400000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2406400000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2195500000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2398800000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2163200000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1959300000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1811900000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1591900000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1533400000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2077600000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1932400000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1733500000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1861000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1894700000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>2243700000</v>
+        <v>2374200000</v>
       </c>
       <c r="C7">
-        <v>2109300000</v>
+        <v>2244000000</v>
       </c>
       <c r="D7">
-        <v>1968200000</v>
+        <v>2109000000</v>
       </c>
       <c r="E7">
-        <v>1876400000</v>
+        <v>1968000000</v>
       </c>
       <c r="F7">
-        <v>1737900000</v>
+        <v>1951000000</v>
       </c>
       <c r="G7">
+        <v>1738000000</v>
+      </c>
+      <c r="H7">
         <v>1651200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1592900000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1577300000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1509700000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1450300000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1369200000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1272900000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1136800000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1032400000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>935400000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>812000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>746400000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>688800000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>661900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>613100000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>584800000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>540100000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>497400000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>458400000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>447300000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>440100000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>439000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>432100000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>427300000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>408600000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>404700000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>387400000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>335400000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>326700000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>320800000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>309900000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>294200000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>267600000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>249900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3078100000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>3738000000</v>
+        <v>3132000000</v>
       </c>
       <c r="D8">
-        <v>4416200000</v>
+        <v>3774000000</v>
       </c>
       <c r="E8">
-        <v>4415500000</v>
+        <v>4452000000</v>
       </c>
       <c r="F8">
-        <v>4131500000</v>
+        <v>4416000000</v>
       </c>
       <c r="G8">
+        <v>4132000000</v>
+      </c>
+      <c r="H8">
         <v>3295600000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2673000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1757700000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1643200000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1586500000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2642700000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2623500000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2533000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2429800000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2255900000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1771300000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1434600000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1327100000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1550900000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1885900000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1655200000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1599900000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1682000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2283300000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2346000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2041100000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1992700000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1788000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1385500000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1307100000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1304800000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1264500000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1248400000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1064800000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1404300000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1350400000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1319400000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1737000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1757800000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>1058500000</v>
+        <v>348500000</v>
       </c>
       <c r="C9">
-        <v>1049500000</v>
+        <v>405000000</v>
       </c>
       <c r="D9">
-        <v>1005400000</v>
+        <v>415000000</v>
       </c>
       <c r="E9">
-        <v>976800000</v>
+        <v>407000000</v>
       </c>
       <c r="F9">
-        <v>925700000</v>
+        <v>414000000</v>
       </c>
       <c r="G9">
+        <v>422000000</v>
+      </c>
+      <c r="H9">
         <v>939200000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>871500000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>840300000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>804000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>802300000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>823000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>748600000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>720400000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>628700000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>626200000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>501600000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>473500000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>432200000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>404900000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>396900000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>355900000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>353500000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>341300000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>201100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>336900000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>345400000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>332600000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>323900000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>331100000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>326700000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>318300000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>324300000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>332600000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>336000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>259900000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>231500000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>228700000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>229500000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>237800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>664600000</v>
+      </c>
+      <c r="C10">
         <v>587400000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>515900000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>485400000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>441400000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>411500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>394400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>336600000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>367700000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>360300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>365500000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>364700000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>425600000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>424100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>369100000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>392400000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>428600000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>411500000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>415400000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>426800000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>72000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>119800000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>115100000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>119600000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>150900000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>133100000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>126800000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>135600000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>167800000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>139600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>148900000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>139100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>171300000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>143200000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>143700000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>131600000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>126100000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>121600000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>106200000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>95600000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1009900000</v>
+      </c>
+      <c r="C11">
         <v>305000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>298000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>279000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>210000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>262000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>276000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>207000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>173000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>154000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>216000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>222000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>137000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>142800000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>4397200000</v>
+      </c>
+      <c r="C12">
         <v>6967700000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>7412700000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>7875200000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7710100000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7206600000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6280400000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5474000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4543000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4317200000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>4204600000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5199600000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5070600000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>4814300000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4460000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4209900000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3513500000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3066000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2863500000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>3044500000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2967900000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2715700000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2608600000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2640300000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>3236500000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>3263300000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2953400000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2899900000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2711800000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2283500000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2191300000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2166900000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2147500000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2059600000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1871200000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2116600000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2017900000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1963900000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2340300000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2341100000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>13260800000</v>
+        <v>12974000000</v>
       </c>
       <c r="C13">
-        <v>13705200000</v>
+        <v>13261000000</v>
       </c>
       <c r="D13">
-        <v>13678400000</v>
+        <v>13705000000</v>
       </c>
       <c r="E13">
+        <v>13678000000</v>
+      </c>
+      <c r="F13">
         <v>13555000000</v>
       </c>
-      <c r="F13">
-        <v>12934600000</v>
-      </c>
       <c r="G13">
+        <v>12935000000</v>
+      </c>
+      <c r="H13">
         <v>12297000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>11540400000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11168900000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10617500000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10103600000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>9891100000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>9733200000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>9131300000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>8531600000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>8234900000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7846700000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>7318600000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>6849600000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>6426200000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>5776800000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>5644600000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>5250800000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>4808000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>6486900000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>6174700000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>5780800000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>5306300000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>4907300000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>4682300000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>4354500000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>4126200000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3959400000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>3651500000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3404600000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>4194200000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3950300000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>3697400000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>4201300000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>4235800000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>164200000</v>
+        <v>1423100000</v>
       </c>
       <c r="C14">
-        <v>149700000</v>
+        <v>164000000</v>
       </c>
       <c r="D14">
-        <v>128100000</v>
+        <v>150000000</v>
       </c>
       <c r="E14">
-        <v>121200000</v>
+        <v>128000000</v>
       </c>
       <c r="F14">
+        <v>121000000</v>
+      </c>
+      <c r="G14">
         <v>120000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>117900000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>103100000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>81600000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>116000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>108900000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>133400000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>123500000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>132400000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>129600000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>130600000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>100700000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>96400000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>102200000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>96300000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>82500000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>80400000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>74200000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>74000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>68500000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>60600000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>64800000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>57900000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>52600000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>58000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>64700000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>67900000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>61600000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>53600000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>58900000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>57000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>46200000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>62000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>67200000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>67900000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>308200000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>278600000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>219800000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>350100000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>265300000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>254000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>194800000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>235000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>175200000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>168700000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>156500000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>251600000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>187400000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>160500000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>125100000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>193800000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>146100000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>128000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>103600000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>167600000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>124700000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>111100000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>85900000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>136400000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>104100000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>94500000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>77500000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>117300000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>90400000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>87000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>69100000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>96200000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>76100000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>74500000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>55400000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>70700000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>54900000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>70000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>66000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
         <v>20000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>22000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>438300000</v>
+      </c>
+      <c r="C17">
         <v>358900000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>376300000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>386000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>377200000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>348500000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>360000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>358100000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>350300000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>327800000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>343100000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>337400000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>337800000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>307600000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>306800000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>298400000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>294300000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>281000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>272100000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>254600000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>243800000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>282500000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>288900000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>273300000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>240600000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>229600000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>228600000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>225300000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>225600000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>225000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>216800000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>212000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>216600000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>217800000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>225100000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>226500000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>200100000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>192600000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>196700000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>192100000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>998000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>985000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>871000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>954000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>841000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>828000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>751000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>815000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>743000000</v>
-      </c>
-      <c r="K18">
-        <v>778000000</v>
       </c>
       <c r="L18">
         <v>778000000</v>
       </c>
       <c r="M18">
+        <v>778000000</v>
+      </c>
+      <c r="N18">
         <v>861000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>1233400000</v>
+        <v>1861400000</v>
       </c>
       <c r="C19">
+        <v>1233000000</v>
+      </c>
+      <c r="D19">
         <v>1175000000</v>
       </c>
-      <c r="D19">
-        <v>1112200000</v>
-      </c>
       <c r="E19">
-        <v>1149800000</v>
+        <v>1112000000</v>
       </c>
       <c r="F19">
-        <v>1027300000</v>
+        <v>1150000000</v>
       </c>
       <c r="G19">
+        <v>1027000000</v>
+      </c>
+      <c r="H19">
         <v>1004600000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>904600000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>965200000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>894700000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>924800000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>945900000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1030200000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>930900000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>807500000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>740200000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>820600000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>703300000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>666400000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>581200000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>662800000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>615700000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>599800000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>558200000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>596500000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>528100000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>489500000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>452900000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>491900000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>478600000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>474400000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>456900000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>501200000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>480500000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>495900000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>459500000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>380900000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>367300000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>390900000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>377600000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
         <v>67000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>58000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>69000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>37000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>37000000</v>
       </c>
       <c r="D21">
+        <v>37000000</v>
+      </c>
+      <c r="E21">
         <v>38000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>37000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>35000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>32000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>32000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>30000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>28000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>29000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>27000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>-587000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-516000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-485000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-441000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-412000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-394000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-337000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-368000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-360000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-366000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-365000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-426000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>417000000</v>
+      </c>
+      <c r="D23">
+        <v>410000000</v>
+      </c>
+      <c r="E23">
+        <v>371000000</v>
+      </c>
+      <c r="F23">
+        <v>350000000</v>
+      </c>
+      <c r="G23">
+        <v>413000000</v>
+      </c>
+      <c r="H23">
+        <v>412900000</v>
+      </c>
+      <c r="I23">
+        <v>445600000</v>
+      </c>
+      <c r="J23">
+        <v>444600000</v>
+      </c>
+      <c r="K23">
+        <v>436100000</v>
+      </c>
+      <c r="L23">
+        <v>412400000</v>
+      </c>
+      <c r="M23">
+        <v>414700000</v>
+      </c>
+      <c r="N23">
+        <v>418300000</v>
+      </c>
+      <c r="O23">
+        <v>423300000</v>
+      </c>
+      <c r="P23">
+        <v>444500000</v>
+      </c>
+      <c r="Q23">
+        <v>454300000</v>
+      </c>
+      <c r="R23">
+        <v>338600000</v>
+      </c>
+      <c r="S23">
+        <v>326800000</v>
+      </c>
+      <c r="T23">
+        <v>314000000</v>
+      </c>
+      <c r="U23">
+        <v>338600000</v>
+      </c>
+      <c r="V23">
+        <v>333600000</v>
+      </c>
+      <c r="W23">
+        <v>69000000</v>
+      </c>
+      <c r="X23">
+        <v>128700000</v>
+      </c>
+      <c r="Y23">
+        <v>122300000</v>
+      </c>
+      <c r="Z23">
+        <v>112600000</v>
+      </c>
+      <c r="AA23">
+        <v>104800000</v>
+      </c>
+      <c r="AB23">
+        <v>109800000</v>
+      </c>
+      <c r="AC23">
+        <v>103000000</v>
+      </c>
+      <c r="AD23">
+        <v>95900000</v>
+      </c>
+      <c r="AE23">
+        <v>88500000</v>
+      </c>
+      <c r="AF23">
+        <v>87400000</v>
+      </c>
+      <c r="AG23">
+        <v>83900000</v>
+      </c>
+      <c r="AH23">
+        <v>78800000</v>
+      </c>
+      <c r="AI23">
+        <v>86800000</v>
+      </c>
+      <c r="AJ23">
+        <v>86300000</v>
+      </c>
+      <c r="AK23">
+        <v>78100000</v>
+      </c>
+      <c r="AL23">
+        <v>68000000</v>
+      </c>
+      <c r="AM23">
+        <v>65800000</v>
+      </c>
+      <c r="AN23">
+        <v>91600000</v>
+      </c>
+      <c r="AO23">
+        <v>86000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>453400000</v>
       </c>
-      <c r="C23">
+      <c r="D24">
         <v>447800000</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <v>409300000</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>453700000</v>
       </c>
-      <c r="F23">
+      <c r="G24">
         <v>447800000</v>
       </c>
-      <c r="G23">
+      <c r="H24">
         <v>412900000</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>445600000</v>
       </c>
-      <c r="I23">
+      <c r="J24">
         <v>444600000</v>
       </c>
-      <c r="J23">
+      <c r="K24">
         <v>436100000</v>
       </c>
-      <c r="K23">
+      <c r="L24">
         <v>412400000</v>
       </c>
-      <c r="L23">
+      <c r="M24">
         <v>414700000</v>
       </c>
-      <c r="M23">
+      <c r="N24">
         <v>418300000</v>
       </c>
-      <c r="N23">
+      <c r="O24">
         <v>423300000</v>
       </c>
-      <c r="O23">
+      <c r="P24">
         <v>444500000</v>
       </c>
-      <c r="P23">
+      <c r="Q24">
         <v>454300000</v>
       </c>
-      <c r="Q23">
+      <c r="R24">
         <v>338600000</v>
       </c>
-      <c r="R23">
+      <c r="S24">
         <v>326800000</v>
       </c>
-      <c r="S23">
+      <c r="T24">
         <v>314000000</v>
       </c>
-      <c r="T23">
+      <c r="U24">
         <v>338600000</v>
       </c>
-      <c r="U23">
+      <c r="V24">
         <v>333600000</v>
       </c>
-      <c r="V23">
+      <c r="W24">
         <v>69000000</v>
       </c>
-      <c r="W23">
+      <c r="X24">
         <v>128700000</v>
       </c>
-      <c r="X23">
+      <c r="Y24">
         <v>122300000</v>
       </c>
-      <c r="Y23">
+      <c r="Z24">
         <v>112600000</v>
       </c>
-      <c r="Z23">
+      <c r="AA24">
         <v>104800000</v>
       </c>
-      <c r="AA23">
+      <c r="AB24">
         <v>109800000</v>
       </c>
-      <c r="AB23">
+      <c r="AC24">
         <v>103000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD24">
         <v>95900000</v>
       </c>
-      <c r="AD23">
+      <c r="AE24">
         <v>88500000</v>
       </c>
-      <c r="AE23">
+      <c r="AF24">
         <v>87400000</v>
       </c>
-      <c r="AF23">
+      <c r="AG24">
         <v>83900000</v>
       </c>
-      <c r="AG23">
+      <c r="AH24">
         <v>78800000</v>
       </c>
-      <c r="AH23">
+      <c r="AI24">
         <v>86800000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ24">
         <v>86300000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK24">
         <v>78100000</v>
       </c>
-      <c r="AK23">
+      <c r="AL24">
         <v>68000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM24">
         <v>65800000</v>
       </c>
-      <c r="AM23">
+      <c r="AN24">
         <v>91600000</v>
       </c>
-      <c r="AN23">
+      <c r="AO24">
         <v>86000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>453400000</v>
-      </c>
-      <c r="C24">
-        <v>447800000</v>
-      </c>
-      <c r="D24">
-        <v>409300000</v>
-      </c>
-      <c r="E24">
-        <v>453700000</v>
-      </c>
-      <c r="F24">
-        <v>447800000</v>
-      </c>
-      <c r="G24">
-        <v>412900000</v>
-      </c>
-      <c r="H24">
-        <v>445600000</v>
-      </c>
-      <c r="I24">
-        <v>444600000</v>
-      </c>
-      <c r="J24">
-        <v>436100000</v>
-      </c>
-      <c r="K24">
-        <v>412400000</v>
-      </c>
-      <c r="L24">
-        <v>414700000</v>
-      </c>
-      <c r="M24">
-        <v>418300000</v>
-      </c>
-      <c r="N24">
-        <v>423300000</v>
-      </c>
-      <c r="O24">
-        <v>444500000</v>
-      </c>
-      <c r="P24">
-        <v>454300000</v>
-      </c>
-      <c r="Q24">
-        <v>338600000</v>
-      </c>
-      <c r="R24">
-        <v>326800000</v>
-      </c>
-      <c r="S24">
-        <v>314000000</v>
-      </c>
-      <c r="T24">
-        <v>338600000</v>
-      </c>
-      <c r="U24">
-        <v>333600000</v>
-      </c>
-      <c r="V24">
-        <v>69000000</v>
-      </c>
-      <c r="W24">
-        <v>128700000</v>
-      </c>
-      <c r="X24">
-        <v>122300000</v>
-      </c>
-      <c r="Y24">
-        <v>112600000</v>
-      </c>
-      <c r="Z24">
-        <v>104800000</v>
-      </c>
-      <c r="AA24">
-        <v>109800000</v>
-      </c>
-      <c r="AB24">
-        <v>103000000</v>
-      </c>
-      <c r="AC24">
-        <v>95900000</v>
-      </c>
-      <c r="AD24">
-        <v>88500000</v>
-      </c>
-      <c r="AE24">
-        <v>87400000</v>
-      </c>
-      <c r="AF24">
-        <v>83900000</v>
-      </c>
-      <c r="AG24">
-        <v>78800000</v>
-      </c>
-      <c r="AH24">
-        <v>86800000</v>
-      </c>
-      <c r="AI24">
-        <v>86300000</v>
-      </c>
-      <c r="AJ24">
-        <v>78100000</v>
-      </c>
-      <c r="AK24">
-        <v>68000000</v>
-      </c>
-      <c r="AL24">
-        <v>65800000</v>
-      </c>
-      <c r="AM24">
-        <v>91600000</v>
-      </c>
-      <c r="AN24">
-        <v>86000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>1861400000</v>
+      </c>
+      <c r="C25">
+        <v>1687000000</v>
+      </c>
+      <c r="D25">
+        <v>1623000000</v>
+      </c>
+      <c r="E25">
+        <v>1522000000</v>
+      </c>
+      <c r="F25">
+        <v>1604000000</v>
+      </c>
+      <c r="G25">
+        <v>1475000000</v>
+      </c>
+      <c r="H25">
+        <v>1417500000</v>
+      </c>
+      <c r="I25">
+        <v>1350200000</v>
+      </c>
+      <c r="J25">
+        <v>1409800000</v>
+      </c>
+      <c r="K25">
+        <v>1330800000</v>
+      </c>
+      <c r="L25">
+        <v>1337200000</v>
+      </c>
+      <c r="M25">
+        <v>1360600000</v>
+      </c>
+      <c r="N25">
+        <v>1448500000</v>
+      </c>
+      <c r="O25">
+        <v>1354200000</v>
+      </c>
+      <c r="P25">
+        <v>1252000000</v>
+      </c>
+      <c r="Q25">
+        <v>1194500000</v>
+      </c>
+      <c r="R25">
+        <v>1159200000</v>
+      </c>
+      <c r="S25">
+        <v>1030100000</v>
+      </c>
+      <c r="T25">
+        <v>980400000</v>
+      </c>
+      <c r="U25">
+        <v>919800000</v>
+      </c>
+      <c r="V25">
+        <v>996400000</v>
+      </c>
+      <c r="W25">
+        <v>684700000</v>
+      </c>
+      <c r="X25">
+        <v>728500000</v>
+      </c>
+      <c r="Y25">
+        <v>680500000</v>
+      </c>
+      <c r="Z25">
+        <v>709100000</v>
+      </c>
+      <c r="AA25">
+        <v>632900000</v>
+      </c>
+      <c r="AB25">
+        <v>599300000</v>
+      </c>
+      <c r="AC25">
+        <v>555900000</v>
+      </c>
+      <c r="AD25">
+        <v>587800000</v>
+      </c>
+      <c r="AE25">
+        <v>567100000</v>
+      </c>
+      <c r="AF25">
+        <v>561800000</v>
+      </c>
+      <c r="AG25">
+        <v>540800000</v>
+      </c>
+      <c r="AH25">
+        <v>580000000</v>
+      </c>
+      <c r="AI25">
+        <v>567300000</v>
+      </c>
+      <c r="AJ25">
+        <v>582200000</v>
+      </c>
+      <c r="AK25">
+        <v>537600000</v>
+      </c>
+      <c r="AL25">
+        <v>448900000</v>
+      </c>
+      <c r="AM25">
+        <v>433100000</v>
+      </c>
+      <c r="AN25">
+        <v>482500000</v>
+      </c>
+      <c r="AO25">
+        <v>463600000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1686800000</v>
-      </c>
-      <c r="C25">
-        <v>1622800000</v>
-      </c>
-      <c r="D25">
-        <v>1521500000</v>
-      </c>
-      <c r="E25">
-        <v>1603500000</v>
-      </c>
-      <c r="F25">
-        <v>1475100000</v>
-      </c>
-      <c r="G25">
-        <v>1417500000</v>
-      </c>
-      <c r="H25">
-        <v>1350200000</v>
-      </c>
-      <c r="I25">
-        <v>1409800000</v>
-      </c>
-      <c r="J25">
-        <v>1330800000</v>
-      </c>
-      <c r="K25">
-        <v>1337200000</v>
-      </c>
-      <c r="L25">
-        <v>1360600000</v>
-      </c>
-      <c r="M25">
-        <v>1448500000</v>
-      </c>
-      <c r="N25">
-        <v>1354200000</v>
-      </c>
-      <c r="O25">
-        <v>1252000000</v>
-      </c>
-      <c r="P25">
-        <v>1194500000</v>
-      </c>
-      <c r="Q25">
-        <v>1159200000</v>
-      </c>
-      <c r="R25">
-        <v>1030100000</v>
-      </c>
-      <c r="S25">
-        <v>980400000</v>
-      </c>
-      <c r="T25">
-        <v>919800000</v>
-      </c>
-      <c r="U25">
-        <v>996400000</v>
-      </c>
-      <c r="V25">
-        <v>684700000</v>
-      </c>
-      <c r="W25">
-        <v>728500000</v>
-      </c>
-      <c r="X25">
-        <v>680500000</v>
-      </c>
-      <c r="Y25">
-        <v>709100000</v>
-      </c>
-      <c r="Z25">
-        <v>632900000</v>
-      </c>
-      <c r="AA25">
-        <v>599300000</v>
-      </c>
-      <c r="AB25">
-        <v>555900000</v>
-      </c>
-      <c r="AC25">
-        <v>587800000</v>
-      </c>
-      <c r="AD25">
-        <v>567100000</v>
-      </c>
-      <c r="AE25">
-        <v>561800000</v>
-      </c>
-      <c r="AF25">
-        <v>540800000</v>
-      </c>
-      <c r="AG25">
-        <v>580000000</v>
-      </c>
-      <c r="AH25">
-        <v>567300000</v>
-      </c>
-      <c r="AI25">
-        <v>582200000</v>
-      </c>
-      <c r="AJ25">
-        <v>537600000</v>
-      </c>
-      <c r="AK25">
-        <v>448900000</v>
-      </c>
-      <c r="AL25">
-        <v>433100000</v>
-      </c>
-      <c r="AM25">
-        <v>482500000</v>
-      </c>
-      <c r="AN25">
-        <v>463600000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>7684800000</v>
+      </c>
+      <c r="D26">
+        <v>7484000000</v>
+      </c>
+      <c r="E26">
+        <v>7354600000</v>
+      </c>
+      <c r="F26">
+        <v>7164000000</v>
+      </c>
+      <c r="G26">
+        <v>7015100000</v>
+      </c>
+      <c r="H26">
+        <v>6804400000</v>
+      </c>
+      <c r="I26">
+        <v>6627300000</v>
+      </c>
+      <c r="J26">
+        <v>6444900000</v>
+      </c>
+      <c r="K26">
+        <v>6304300000</v>
+      </c>
+      <c r="L26">
+        <v>6085100000</v>
+      </c>
+      <c r="M26">
+        <v>5926800000</v>
+      </c>
+      <c r="N26">
+        <v>5756800000</v>
+      </c>
+      <c r="O26">
+        <v>5600900000</v>
+      </c>
+      <c r="P26">
+        <v>5430100000</v>
+      </c>
+      <c r="Q26">
+        <v>5328800000</v>
+      </c>
+      <c r="R26">
+        <v>5170300000</v>
+      </c>
+      <c r="S26">
+        <v>5063200000</v>
+      </c>
+      <c r="T26">
+        <v>4928800000</v>
+      </c>
+      <c r="U26">
+        <v>4817100000</v>
+      </c>
+      <c r="V26">
+        <v>4679200000</v>
+      </c>
+      <c r="W26">
+        <v>4190400000</v>
+      </c>
+      <c r="X26">
+        <v>4049800000</v>
+      </c>
+      <c r="Y26">
+        <v>3872200000</v>
+      </c>
+      <c r="Z26">
+        <v>4211800000</v>
+      </c>
+      <c r="AA26">
+        <v>4135000000</v>
+      </c>
+      <c r="AB26">
+        <v>3979200000</v>
+      </c>
+      <c r="AC26">
+        <v>3739500000</v>
+      </c>
+      <c r="AD26">
+        <v>3429800000</v>
+      </c>
+      <c r="AE26">
+        <v>3332200000</v>
+      </c>
+      <c r="AF26">
+        <v>3147800000</v>
+      </c>
+      <c r="AG26">
+        <v>3024300000</v>
+      </c>
+      <c r="AH26">
+        <v>2896800000</v>
+      </c>
+      <c r="AI26">
+        <v>2741800000</v>
+      </c>
+      <c r="AJ26">
+        <v>2509600000</v>
+      </c>
+      <c r="AK26">
+        <v>2629100000</v>
+      </c>
+      <c r="AL26">
+        <v>2519900000</v>
+      </c>
+      <c r="AM26">
+        <v>2450700000</v>
+      </c>
+      <c r="AN26">
+        <v>2428000000</v>
+      </c>
+      <c r="AO26">
+        <v>2378500000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>7684800000</v>
-      </c>
-      <c r="C26">
-        <v>7484000000</v>
-      </c>
-      <c r="D26">
-        <v>7354600000</v>
-      </c>
-      <c r="E26">
-        <v>7164000000</v>
-      </c>
-      <c r="F26">
-        <v>7015100000</v>
-      </c>
-      <c r="G26">
-        <v>6804400000</v>
-      </c>
-      <c r="H26">
-        <v>6627300000</v>
-      </c>
-      <c r="I26">
-        <v>6444900000</v>
-      </c>
-      <c r="J26">
-        <v>6304300000</v>
-      </c>
-      <c r="K26">
-        <v>6085100000</v>
-      </c>
-      <c r="L26">
-        <v>5926800000</v>
-      </c>
-      <c r="M26">
-        <v>5756800000</v>
-      </c>
-      <c r="N26">
-        <v>5600900000</v>
-      </c>
-      <c r="O26">
-        <v>5430100000</v>
-      </c>
-      <c r="P26">
-        <v>5328800000</v>
-      </c>
-      <c r="Q26">
-        <v>5170300000</v>
-      </c>
-      <c r="R26">
-        <v>5063200000</v>
-      </c>
-      <c r="S26">
-        <v>4928800000</v>
-      </c>
-      <c r="T26">
-        <v>4817100000</v>
-      </c>
-      <c r="U26">
-        <v>4679200000</v>
-      </c>
-      <c r="V26">
-        <v>4190400000</v>
-      </c>
-      <c r="W26">
-        <v>4049800000</v>
-      </c>
-      <c r="X26">
-        <v>3872200000</v>
-      </c>
-      <c r="Y26">
-        <v>4211800000</v>
-      </c>
-      <c r="Z26">
-        <v>4135000000</v>
-      </c>
-      <c r="AA26">
-        <v>3979200000</v>
-      </c>
-      <c r="AB26">
-        <v>3739500000</v>
-      </c>
-      <c r="AC26">
-        <v>3429800000</v>
-      </c>
-      <c r="AD26">
-        <v>3332200000</v>
-      </c>
-      <c r="AE26">
-        <v>3147800000</v>
-      </c>
-      <c r="AF26">
-        <v>3024300000</v>
-      </c>
-      <c r="AG26">
-        <v>2896800000</v>
-      </c>
-      <c r="AH26">
-        <v>2741800000</v>
-      </c>
-      <c r="AI26">
-        <v>2509600000</v>
-      </c>
-      <c r="AJ26">
-        <v>2629100000</v>
-      </c>
-      <c r="AK26">
-        <v>2519900000</v>
-      </c>
-      <c r="AL26">
-        <v>2450700000</v>
-      </c>
-      <c r="AM26">
-        <v>2428000000</v>
-      </c>
-      <c r="AN26">
-        <v>2378500000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>400000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>100000</v>
       </c>
       <c r="I27">
+        <v>100000</v>
+      </c>
+      <c r="J27">
         <v>400000</v>
-      </c>
-      <c r="J27">
-        <v>100000</v>
       </c>
       <c r="K27">
         <v>100000</v>
@@ -3109,872 +3265,887 @@
       <c r="V27">
         <v>100000</v>
       </c>
+      <c r="W27">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>4017800000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
-        <v>4682800000</v>
+        <v>4018000000</v>
       </c>
       <c r="D28">
+        <v>4683000000</v>
+      </c>
+      <c r="E28">
         <v>4858000000</v>
       </c>
-      <c r="E28">
-        <v>4760900000</v>
-      </c>
       <c r="F28">
-        <v>4390100000</v>
+        <v>4761000000</v>
       </c>
       <c r="G28">
+        <v>4390000000</v>
+      </c>
+      <c r="H28">
         <v>4022700000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3514700000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3261300000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2937200000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2633000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2570900000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2494500000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2142600000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1819000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1696000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1521700000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1234000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>948100000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>698000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>115000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>776600000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>482300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>263300000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1574900000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1402800000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1193000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1009600000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>899200000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>785700000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>651300000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>562300000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>487700000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>341000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>312200000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1023700000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>979400000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>813200000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1292900000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1385600000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>11574000000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>12082400000</v>
+        <v>11515000000</v>
       </c>
       <c r="D29">
-        <v>12156900000</v>
+        <v>12023000000</v>
       </c>
       <c r="E29">
-        <v>11951500000</v>
+        <v>12102000000</v>
       </c>
       <c r="F29">
-        <v>11459500000</v>
+        <v>11901000000</v>
       </c>
       <c r="G29">
+        <v>11411000000</v>
+      </c>
+      <c r="H29">
         <v>10879500000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>10190200000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>9759100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>9286700000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>8766400000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>8530500000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8284701000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>7777100000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>7279600000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>7040400000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6687500000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>6288500000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>5869200000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>5506400000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>4780400000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>4959900000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>4522300000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>4127500000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5777800000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>5541800000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>5181500000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>4750400000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4319500000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>4115200000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>3792700000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>3585400000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3379400000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>3084200000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>2822400000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>3656600000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>3501400000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3264300000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>3718800000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3772200000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>11574000000</v>
+        <v>11112600000</v>
       </c>
       <c r="C30">
-        <v>12082400000</v>
+        <v>11515000000</v>
       </c>
       <c r="D30">
-        <v>12156900000</v>
+        <v>12023000000</v>
       </c>
       <c r="E30">
-        <v>11951500000</v>
+        <v>12102000000</v>
       </c>
       <c r="F30">
-        <v>11459500000</v>
+        <v>11901000000</v>
       </c>
       <c r="G30">
+        <v>11411000000</v>
+      </c>
+      <c r="H30">
         <v>10879500000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>10190200000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9759100000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>9286700000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>8766400000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8530500000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>8284700000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>7777100000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7279600000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>7040400000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>6687500000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>6288500000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>5869200000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>5506400000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4780400000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>4959900000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>4522300000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>4127500000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>5777800000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>5541800000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>5181500000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>4750400000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>4319500000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>4115200000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>3792700000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>3585400000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3379400000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3084200000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2822400000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>3656600000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>3501400000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>3264300000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3718800000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3772200000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>12974000000</v>
+      </c>
+      <c r="C31">
         <v>13260800000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>13705200000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>13678400000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>13555000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>12934600000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>12297000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11540400000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>11168900000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>10617500000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>10103600000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>9891100000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>9733200000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9131300000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>8531600000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>8234900000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7846700000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>7318600000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>6849600000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>6426200000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>5776800000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>5644600000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>5250800000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>4808000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>6486900000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>6174700000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>5780800000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>5306300000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>4907300000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>4682300000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>4354500000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>4126200000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3959400000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>3651500000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3404600000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>4194200000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>3950300000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>3697400000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>4201300000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>4235800000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>353300000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>357100000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>358900000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>357700000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>357200000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>356100000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>355200000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>353100000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>352500000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>351000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>349800000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>348000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>346800000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>345600000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>346200000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>343500000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>342600000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>341100000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>339900000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>336900000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>336000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>333900000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>331200000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>349200000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>348300000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>346500000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>342900000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>336600000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>335700000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>333000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>331200000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>329400000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>326700000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>324000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>345600000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>343800000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>342900000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>357300000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>361800000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>10764100000</v>
+      </c>
+      <c r="C33">
         <v>10515500000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>11032900000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>11151500000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>10974700000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>10533800000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>9940300000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9318700000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>8918801000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>8482700000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>7964100000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>7707500000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>7536100000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>7056700000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>6650899000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>6414200000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>6185900000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>5815000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>5437000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>5101500000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>4383500000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>4604000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>4168800000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>3786200000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>5576700000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>5204900000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>4836100000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>4417800000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>3995600000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>3784100000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>3466000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>3267100000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>3055100000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>2751600000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>2486400000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>3396700000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>3269900000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>3035600000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>3489300000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>3534400000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>-4313900000</v>
+        <v>-6741500000</v>
       </c>
       <c r="C34">
-        <v>-4437400000</v>
+        <v>-4319000000</v>
       </c>
       <c r="D34">
-        <v>-3985600000</v>
+        <v>-4437000000</v>
       </c>
       <c r="E34">
+        <v>-3986000000</v>
+      </c>
+      <c r="F34">
         <v>-4117000000</v>
       </c>
-      <c r="F34">
-        <v>-4088200000</v>
-      </c>
       <c r="G34">
+        <v>-4088000000</v>
+      </c>
+      <c r="H34">
         <v>-4439200000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-4557500000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-5031400000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-4718200000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-4488300000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-3253400000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-3144700000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-2897600000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-2718400000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-2808700000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-3063100000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-3135900000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-2932500000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-2517300000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-1960600000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-2146800000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-1823400000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-1464800000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-2554600000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-2215300000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-2183800000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-1808400000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-1559800000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-1739700000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-1561500000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-1362200000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-1232500000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-1014300000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-978600000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-1559300000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-1403500000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-1212900000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-1290200000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-1358200000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35">
         <v>87000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>80000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>77000000</v>
       </c>
     </row>
